--- a/natmiOut/OldD2/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Oxt</t>
   </si>
   <si>
     <t>Avpr1a</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.291918214953196</v>
+        <v>0.6055695</v>
       </c>
       <c r="H2">
-        <v>0.291918214953196</v>
+        <v>1.211139</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.280143224423095</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2100384425087053</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.54433008438256</v>
+        <v>6.967000000000001</v>
       </c>
       <c r="N2">
-        <v>6.54433008438256</v>
+        <v>20.901</v>
       </c>
       <c r="O2">
-        <v>0.6378910706544727</v>
+        <v>0.5748265097082178</v>
       </c>
       <c r="P2">
-        <v>0.6378910706544727</v>
+        <v>0.6465066063008922</v>
       </c>
       <c r="Q2">
-        <v>1.910409156297455</v>
+        <v>4.2190027065</v>
       </c>
       <c r="R2">
-        <v>1.910409156297455</v>
+        <v>25.314016239</v>
       </c>
       <c r="S2">
-        <v>0.6378910706544727</v>
+        <v>0.1610337519135336</v>
       </c>
       <c r="T2">
-        <v>0.6378910706544727</v>
+        <v>0.1357912406590281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +590,1053 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.6055695</v>
+      </c>
+      <c r="H3">
+        <v>1.211139</v>
+      </c>
+      <c r="I3">
+        <v>0.280143224423095</v>
+      </c>
+      <c r="J3">
+        <v>0.2100384425087053</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>1.121778666666667</v>
+      </c>
+      <c r="N3">
+        <v>3.365336</v>
+      </c>
+      <c r="O3">
+        <v>0.09255463120785677</v>
+      </c>
+      <c r="P3">
+        <v>0.104096069873318</v>
+      </c>
+      <c r="Q3">
+        <v>0.679314946284</v>
+      </c>
+      <c r="R3">
+        <v>4.075889677704</v>
+      </c>
+      <c r="S3">
+        <v>0.02592855282185941</v>
+      </c>
+      <c r="T3">
+        <v>0.02186417638746907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.6055695</v>
+      </c>
+      <c r="H4">
+        <v>1.211139</v>
+      </c>
+      <c r="I4">
+        <v>0.280143224423095</v>
+      </c>
+      <c r="J4">
+        <v>0.2100384425087053</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>4.0314</v>
+      </c>
+      <c r="N4">
+        <v>8.062799999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.3326188590839254</v>
+      </c>
+      <c r="P4">
+        <v>0.2493973238257898</v>
+      </c>
+      <c r="Q4">
+        <v>2.4412928823</v>
+      </c>
+      <c r="R4">
+        <v>9.765171529199998</v>
+      </c>
+      <c r="S4">
+        <v>0.09318091968770192</v>
+      </c>
+      <c r="T4">
+        <v>0.05238302546220812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3578333333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.0735</v>
+      </c>
+      <c r="I5">
+        <v>0.1655377026188805</v>
+      </c>
+      <c r="J5">
+        <v>0.1861687783426141</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.967000000000001</v>
+      </c>
+      <c r="N5">
+        <v>20.901</v>
+      </c>
+      <c r="O5">
+        <v>0.5748265097082178</v>
+      </c>
+      <c r="P5">
+        <v>0.6465066063008922</v>
+      </c>
+      <c r="Q5">
+        <v>2.493024833333334</v>
+      </c>
+      <c r="R5">
+        <v>22.43722350000001</v>
+      </c>
+      <c r="S5">
+        <v>0.095155459821528</v>
+      </c>
+      <c r="T5">
+        <v>0.1203593450854664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3578333333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.0735</v>
+      </c>
+      <c r="I6">
+        <v>0.1655377026188805</v>
+      </c>
+      <c r="J6">
+        <v>0.1861687783426141</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.121778666666667</v>
+      </c>
+      <c r="N6">
+        <v>3.365336</v>
+      </c>
+      <c r="O6">
+        <v>0.09255463120785677</v>
+      </c>
+      <c r="P6">
+        <v>0.104096069873318</v>
+      </c>
+      <c r="Q6">
+        <v>0.4014097995555556</v>
+      </c>
+      <c r="R6">
+        <v>3.612688196000001</v>
+      </c>
+      <c r="S6">
+        <v>0.01532128101688635</v>
+      </c>
+      <c r="T6">
+        <v>0.019379438158583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3578333333333334</v>
+      </c>
+      <c r="H7">
+        <v>1.0735</v>
+      </c>
+      <c r="I7">
+        <v>0.1655377026188805</v>
+      </c>
+      <c r="J7">
+        <v>0.1861687783426141</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.0314</v>
+      </c>
+      <c r="N7">
+        <v>8.062799999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.3326188590839254</v>
+      </c>
+      <c r="P7">
+        <v>0.2493973238257898</v>
+      </c>
+      <c r="Q7">
+        <v>1.4425693</v>
+      </c>
+      <c r="R7">
+        <v>8.6554158</v>
+      </c>
+      <c r="S7">
+        <v>0.05506096178046617</v>
+      </c>
+      <c r="T7">
+        <v>0.0464299950985646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4037876666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.211363</v>
+      </c>
+      <c r="I8">
+        <v>0.1867966912505961</v>
+      </c>
+      <c r="J8">
+        <v>0.210077289091238</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.967000000000001</v>
+      </c>
+      <c r="N8">
+        <v>20.901</v>
+      </c>
+      <c r="O8">
+        <v>0.5748265097082178</v>
+      </c>
+      <c r="P8">
+        <v>0.6465066063008922</v>
+      </c>
+      <c r="Q8">
+        <v>2.813188673666667</v>
+      </c>
+      <c r="R8">
+        <v>25.318698063</v>
+      </c>
+      <c r="S8">
+        <v>0.1073756900566238</v>
+      </c>
+      <c r="T8">
+        <v>0.1358163552312677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4037876666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.211363</v>
+      </c>
+      <c r="I9">
+        <v>0.1867966912505961</v>
+      </c>
+      <c r="J9">
+        <v>0.210077289091238</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.121778666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.365336</v>
+      </c>
+      <c r="O9">
+        <v>0.09255463120785677</v>
+      </c>
+      <c r="P9">
+        <v>0.104096069873318</v>
+      </c>
+      <c r="Q9">
+        <v>0.4529603903297778</v>
+      </c>
+      <c r="R9">
+        <v>4.076643512968</v>
+      </c>
+      <c r="S9">
+        <v>0.01728889886954681</v>
+      </c>
+      <c r="T9">
+        <v>0.02186822016403873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4037876666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.211363</v>
+      </c>
+      <c r="I10">
+        <v>0.1867966912505961</v>
+      </c>
+      <c r="J10">
+        <v>0.210077289091238</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.0314</v>
+      </c>
+      <c r="N10">
+        <v>8.062799999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.3326188590839254</v>
+      </c>
+      <c r="P10">
+        <v>0.2493973238257898</v>
+      </c>
+      <c r="Q10">
+        <v>1.6278295994</v>
+      </c>
+      <c r="R10">
+        <v>9.766977596399999</v>
+      </c>
+      <c r="S10">
+        <v>0.06213210232442555</v>
+      </c>
+      <c r="T10">
+        <v>0.05239271369593153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.291918214953196</v>
-      </c>
-      <c r="H3">
-        <v>0.291918214953196</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>3.71499221286815</v>
-      </c>
-      <c r="N3">
-        <v>3.71499221286815</v>
-      </c>
-      <c r="O3">
-        <v>0.3621089293455272</v>
-      </c>
-      <c r="P3">
-        <v>0.3621089293455272</v>
-      </c>
-      <c r="Q3">
-        <v>1.084473895345494</v>
-      </c>
-      <c r="R3">
-        <v>1.084473895345494</v>
-      </c>
-      <c r="S3">
-        <v>0.3621089293455272</v>
-      </c>
-      <c r="T3">
-        <v>0.3621089293455272</v>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3325223333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.9975670000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1538285508974465</v>
+      </c>
+      <c r="J11">
+        <v>0.1730003071307932</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.967000000000001</v>
+      </c>
+      <c r="N11">
+        <v>20.901</v>
+      </c>
+      <c r="O11">
+        <v>0.5748265097082178</v>
+      </c>
+      <c r="P11">
+        <v>0.6465066063008922</v>
+      </c>
+      <c r="Q11">
+        <v>2.316683096333334</v>
+      </c>
+      <c r="R11">
+        <v>20.850147867</v>
+      </c>
+      <c r="S11">
+        <v>0.08842472900585209</v>
+      </c>
+      <c r="T11">
+        <v>0.1118458414521411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3325223333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.9975670000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1538285508974465</v>
+      </c>
+      <c r="J12">
+        <v>0.1730003071307932</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.121778666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.365336</v>
+      </c>
+      <c r="O12">
+        <v>0.09255463120785677</v>
+      </c>
+      <c r="P12">
+        <v>0.104096069873318</v>
+      </c>
+      <c r="Q12">
+        <v>0.3730164597235556</v>
+      </c>
+      <c r="R12">
+        <v>3.357148137512</v>
+      </c>
+      <c r="S12">
+        <v>0.01423754479755218</v>
+      </c>
+      <c r="T12">
+        <v>0.01800865205919252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3325223333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.9975670000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1538285508974465</v>
+      </c>
+      <c r="J13">
+        <v>0.1730003071307932</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.0314</v>
+      </c>
+      <c r="N13">
+        <v>8.062799999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.3326188590839254</v>
+      </c>
+      <c r="P13">
+        <v>0.2493973238257898</v>
+      </c>
+      <c r="Q13">
+        <v>1.3405305346</v>
+      </c>
+      <c r="R13">
+        <v>8.0431832076</v>
+      </c>
+      <c r="S13">
+        <v>0.05116627709404219</v>
+      </c>
+      <c r="T13">
+        <v>0.04314581361945951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3488446666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.046534</v>
+      </c>
+      <c r="I14">
+        <v>0.1613794448742873</v>
+      </c>
+      <c r="J14">
+        <v>0.1814922741257654</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.967000000000001</v>
+      </c>
+      <c r="N14">
+        <v>20.901</v>
+      </c>
+      <c r="O14">
+        <v>0.5748265097082178</v>
+      </c>
+      <c r="P14">
+        <v>0.6465066063008922</v>
+      </c>
+      <c r="Q14">
+        <v>2.430400792666667</v>
+      </c>
+      <c r="R14">
+        <v>21.873607134</v>
+      </c>
+      <c r="S14">
+        <v>0.09276518303573633</v>
+      </c>
+      <c r="T14">
+        <v>0.1173359542148798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3488446666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.046534</v>
+      </c>
+      <c r="I15">
+        <v>0.1613794448742873</v>
+      </c>
+      <c r="J15">
+        <v>0.1814922741257654</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.121778666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.365336</v>
+      </c>
+      <c r="O15">
+        <v>0.09255463120785677</v>
+      </c>
+      <c r="P15">
+        <v>0.104096069873318</v>
+      </c>
+      <c r="Q15">
+        <v>0.3913265050471111</v>
+      </c>
+      <c r="R15">
+        <v>3.521938545424</v>
+      </c>
+      <c r="S15">
+        <v>0.01493641500486832</v>
+      </c>
+      <c r="T15">
+        <v>0.01889263244886306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3488446666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.046534</v>
+      </c>
+      <c r="I16">
+        <v>0.1613794448742873</v>
+      </c>
+      <c r="J16">
+        <v>0.1814922741257654</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.0314</v>
+      </c>
+      <c r="N16">
+        <v>8.062799999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.3326188590839254</v>
+      </c>
+      <c r="P16">
+        <v>0.2493973238257898</v>
+      </c>
+      <c r="Q16">
+        <v>1.4063323892</v>
+      </c>
+      <c r="R16">
+        <v>8.437994335199997</v>
+      </c>
+      <c r="S16">
+        <v>0.05367784683368269</v>
+      </c>
+      <c r="T16">
+        <v>0.04526368746202253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.113085</v>
+      </c>
+      <c r="H17">
+        <v>0.22617</v>
+      </c>
+      <c r="I17">
+        <v>0.05231438593569474</v>
+      </c>
+      <c r="J17">
+        <v>0.03922290880088404</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.967000000000001</v>
+      </c>
+      <c r="N17">
+        <v>20.901</v>
+      </c>
+      <c r="O17">
+        <v>0.5748265097082178</v>
+      </c>
+      <c r="P17">
+        <v>0.6465066063008922</v>
+      </c>
+      <c r="Q17">
+        <v>0.7878631950000002</v>
+      </c>
+      <c r="R17">
+        <v>4.727179170000001</v>
+      </c>
+      <c r="S17">
+        <v>0.03007169587494408</v>
+      </c>
+      <c r="T17">
+        <v>0.02535786965810894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.113085</v>
+      </c>
+      <c r="H18">
+        <v>0.22617</v>
+      </c>
+      <c r="I18">
+        <v>0.05231438593569474</v>
+      </c>
+      <c r="J18">
+        <v>0.03922290880088404</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.121778666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.365336</v>
+      </c>
+      <c r="O18">
+        <v>0.09255463120785677</v>
+      </c>
+      <c r="P18">
+        <v>0.104096069873318</v>
+      </c>
+      <c r="Q18">
+        <v>0.12685634052</v>
+      </c>
+      <c r="R18">
+        <v>0.7611380431200001</v>
+      </c>
+      <c r="S18">
+        <v>0.004841938697143716</v>
+      </c>
+      <c r="T18">
+        <v>0.004082950655171604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.113085</v>
+      </c>
+      <c r="H19">
+        <v>0.22617</v>
+      </c>
+      <c r="I19">
+        <v>0.05231438593569474</v>
+      </c>
+      <c r="J19">
+        <v>0.03922290880088404</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.0314</v>
+      </c>
+      <c r="N19">
+        <v>8.062799999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.3326188590839254</v>
+      </c>
+      <c r="P19">
+        <v>0.2493973238257898</v>
+      </c>
+      <c r="Q19">
+        <v>0.455890869</v>
+      </c>
+      <c r="R19">
+        <v>1.823563476</v>
+      </c>
+      <c r="S19">
+        <v>0.01740075136360694</v>
+      </c>
+      <c r="T19">
+        <v>0.009782088487603497</v>
       </c>
     </row>
   </sheetData>
